--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0D0AE-7D7A-492E-9505-BC357B496AFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2584A6A2-FB1E-4ACB-A1DF-2ED579D81D65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Anio</t>
   </si>
@@ -60,20 +57,233 @@
     <t>FIAT</t>
   </si>
   <si>
+    <t>Sin Actividad</t>
+  </si>
+  <si>
+    <t>Es0km</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>A - Responsabilidad Civil Unicamente</t>
+  </si>
+  <si>
+    <t>C1 - Resp. Civil-Robo/Incendio Total y Parcial</t>
+  </si>
+  <si>
+    <t>B1 - Responsabilidad Civil-Robo/Incendio Total</t>
+  </si>
+  <si>
+    <t>idEjecucion</t>
+  </si>
+  <si>
     <t>C - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
   </si>
   <si>
-    <t>Sin Actividad</t>
+    <t>ZZZ370</t>
+  </si>
+  <si>
+    <t>ABC0987AA266</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS261</t>
+  </si>
+  <si>
+    <t>ZZZ371</t>
+  </si>
+  <si>
+    <t>ABC0987AA267</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS262</t>
+  </si>
+  <si>
+    <t>ZZZ372</t>
+  </si>
+  <si>
+    <t>ABC0987AA268</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS263</t>
+  </si>
+  <si>
+    <t>ZZZ373</t>
+  </si>
+  <si>
+    <t>ABC0987AA269</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS264</t>
+  </si>
+  <si>
+    <t>ZZZ374</t>
+  </si>
+  <si>
+    <t>ABC0987AA270</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS265</t>
+  </si>
+  <si>
+    <t>ZZZ375</t>
+  </si>
+  <si>
+    <t>ABC0987AA271</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS266</t>
+  </si>
+  <si>
+    <t>ZZZ376</t>
+  </si>
+  <si>
+    <t>ABC0987AA272</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS267</t>
+  </si>
+  <si>
+    <t>ZZZ377</t>
+  </si>
+  <si>
+    <t>ABC0987AA273</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS268</t>
+  </si>
+  <si>
+    <t>ZZZ378</t>
+  </si>
+  <si>
+    <t>ABC0987AA274</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS269</t>
+  </si>
+  <si>
+    <t>ZZZ379</t>
+  </si>
+  <si>
+    <t>ABC0987AA275</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS270</t>
+  </si>
+  <si>
+    <t>ZZZ380</t>
+  </si>
+  <si>
+    <t>ABC0987AA276</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS271</t>
+  </si>
+  <si>
+    <t>ZZZ381</t>
+  </si>
+  <si>
+    <t>ABC0987AA277</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS272</t>
+  </si>
+  <si>
+    <t>ZZZ382</t>
+  </si>
+  <si>
+    <t>ABC0987AA278</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS273</t>
+  </si>
+  <si>
+    <t>ZZZ383</t>
+  </si>
+  <si>
+    <t>ABC0987AA279</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS274</t>
+  </si>
+  <si>
+    <t>ZZZ384</t>
+  </si>
+  <si>
+    <t>ABC0987AA280</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS275</t>
+  </si>
+  <si>
+    <t>ZZZ385</t>
+  </si>
+  <si>
+    <t>ABC0987AA281</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS276</t>
+  </si>
+  <si>
+    <t>ZZZ386</t>
+  </si>
+  <si>
+    <t>ABC0987AA282</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS277</t>
+  </si>
+  <si>
+    <t>ZZZ387</t>
+  </si>
+  <si>
+    <t>ABC0987AA283</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS278</t>
+  </si>
+  <si>
+    <t>ZZZ388</t>
+  </si>
+  <si>
+    <t>ABC0987AA284</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS279</t>
+  </si>
+  <si>
+    <t>ZZZ389</t>
+  </si>
+  <si>
+    <t>ABC0987AA285</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS280</t>
+  </si>
+  <si>
+    <t>ZZZ390</t>
+  </si>
+  <si>
+    <t>ABC0987AA286</t>
+  </si>
+  <si>
+    <t>MMAA0981FGS281</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +309,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -116,75 +340,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Emisión_Motor"/>
-      <sheetName val="Motor_Answer"/>
-      <sheetName val="EmisionFlota"/>
-      <sheetName val="EmisionAP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>i-preproducciongestion.segurossura.com.ar</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="R25" t="str">
-            <v>SET168</v>
-          </cell>
-          <cell r="S25" t="str">
-            <v>ABC12SET168</v>
-          </cell>
-          <cell r="T25" t="str">
-            <v>ZAZ123SET168</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="R26" t="str">
-            <v>SET169</v>
-          </cell>
-          <cell r="S26" t="str">
-            <v>ABC12SET169</v>
-          </cell>
-          <cell r="T26" t="str">
-            <v>ZAZ123SET169</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="R27" t="str">
-            <v>SET170</v>
-          </cell>
-          <cell r="S27" t="str">
-            <v>ABC12SET170</v>
-          </cell>
-          <cell r="T27" t="str">
-            <v>ZAZ123SET170</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="R28" t="str">
-            <v>SET171</v>
-          </cell>
-          <cell r="S28" t="str">
-            <v>ABC12SET171</v>
-          </cell>
-          <cell r="T28" t="str">
-            <v>ZAZ123SET171</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,172 +639,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3219A7E-753F-4FEB-993B-C5A835647261}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2021</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>147</v>
-      </c>
-      <c r="D2">
-        <v>900000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="str">
-        <f>[1]Emisión_Motor!$R25</f>
-        <v>SET168</v>
-      </c>
-      <c r="G2" t="str">
-        <f>[1]Emisión_Motor!$S25</f>
-        <v>ABC12SET168</v>
-      </c>
-      <c r="H2" t="str">
-        <f>[1]Emisión_Motor!$T25</f>
-        <v>ZAZ123SET168</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>500</v>
+      </c>
+      <c r="F2" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>147</v>
-      </c>
-      <c r="D3">
-        <v>900000</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="str">
-        <f>[1]Emisión_Motor!$R26</f>
-        <v>SET169</v>
-      </c>
-      <c r="G3" t="str">
-        <f>[1]Emisión_Motor!$S26</f>
-        <v>ABC12SET169</v>
-      </c>
-      <c r="H3" t="str">
-        <f>[1]Emisión_Motor!$T26</f>
-        <v>ZAZ123SET169</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>500</v>
+      </c>
+      <c r="F3" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2021</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>147</v>
-      </c>
-      <c r="D4">
-        <v>900000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="str">
-        <f>[1]Emisión_Motor!$R27</f>
-        <v>SET170</v>
-      </c>
-      <c r="G4" t="str">
-        <f>[1]Emisión_Motor!$S27</f>
-        <v>ABC12SET170</v>
-      </c>
-      <c r="H4" t="str">
-        <f>[1]Emisión_Motor!$T27</f>
-        <v>ZAZ123SET170</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2021</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>147</v>
-      </c>
-      <c r="D5">
-        <v>900000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="str">
-        <f>[1]Emisión_Motor!$R28</f>
-        <v>SET171</v>
-      </c>
-      <c r="G5" t="str">
-        <f>[1]Emisión_Motor!$S28</f>
-        <v>ABC12SET171</v>
-      </c>
-      <c r="H5" t="str">
-        <f>[1]Emisión_Motor!$T28</f>
-        <v>ZAZ123SET171</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>500</v>
+      </c>
+      <c r="F14" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>500</v>
+      </c>
+      <c r="F18" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="1">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>900000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H2:J22">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DE6E7C-AE8E-4172-83DC-1A5787F761FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C991F70-48C3-4602-97A7-81950443E294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -72,22 +72,22 @@
     <t>TR - Todo Riesgo Franquicia Variable</t>
   </si>
   <si>
-    <t>ZZZ493</t>
-  </si>
-  <si>
-    <t>ABC0987AX289</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS284</t>
-  </si>
-  <si>
-    <t>ZZZ494</t>
-  </si>
-  <si>
-    <t>ABC0987AX290</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS285</t>
+    <t>ZZZ495</t>
+  </si>
+  <si>
+    <t>ABC0987AX291</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS286</t>
+  </si>
+  <si>
+    <t>ZZZ496</t>
+  </si>
+  <si>
+    <t>ABC0987AX292</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS287</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
@@ -544,10 +544,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -583,9 +583,6 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -594,9 +591,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -774,7 +768,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H16:J21 H2:J14">
+  <conditionalFormatting sqref="H16:J21 H6:J14 H2:J3">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C991F70-48C3-4602-97A7-81950443E294}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C4ADB-46CC-471F-8C80-4454DCA9BE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -72,22 +72,22 @@
     <t>TR - Todo Riesgo Franquicia Variable</t>
   </si>
   <si>
-    <t>ZZZ495</t>
-  </si>
-  <si>
-    <t>ABC0987AX291</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS286</t>
-  </si>
-  <si>
-    <t>ZZZ496</t>
-  </si>
-  <si>
-    <t>ABC0987AX292</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS287</t>
+    <t>ZZZ499</t>
+  </si>
+  <si>
+    <t>ABC0987AX295</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS290</t>
+  </si>
+  <si>
+    <t>ZZZ500</t>
+  </si>
+  <si>
+    <t>ABC0987AX296</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS291</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -462,7 +472,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,8 +778,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H16:J21 H6:J14 H2:J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  <conditionalFormatting sqref="H16:J21 H6:J14">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C4ADB-46CC-471F-8C80-4454DCA9BE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200CEE2C-D756-4192-AA8B-A8CBED43A3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Anio</t>
   </si>
@@ -72,22 +72,31 @@
     <t>TR - Todo Riesgo Franquicia Variable</t>
   </si>
   <si>
-    <t>ZZZ499</t>
-  </si>
-  <si>
-    <t>ABC0987AX295</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS290</t>
-  </si>
-  <si>
-    <t>ZZZ500</t>
-  </si>
-  <si>
-    <t>ABC0987AX296</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS291</t>
+    <t>ZZZ501</t>
+  </si>
+  <si>
+    <t>ABC0987AX297</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS292</t>
+  </si>
+  <si>
+    <t>ZZZ502</t>
+  </si>
+  <si>
+    <t>ABC0987AX298</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS293</t>
+  </si>
+  <si>
+    <t>ZZZ503</t>
+  </si>
+  <si>
+    <t>ABC0987AX299</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS294</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -534,7 +553,7 @@
         <v>500</v>
       </c>
       <c r="F2" s="1">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -569,7 +588,7 @@
         <v>500</v>
       </c>
       <c r="F3" s="1">
-        <v>900000</v>
+        <v>1400000</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -588,12 +607,39 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1400000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -779,10 +825,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H16:J21 H6:J14">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  <conditionalFormatting sqref="H2:J4">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200CEE2C-D756-4192-AA8B-A8CBED43A3AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED7761-C02A-492B-A234-93115AF5A117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Anio</t>
   </si>
@@ -72,31 +72,34 @@
     <t>TR - Todo Riesgo Franquicia Variable</t>
   </si>
   <si>
-    <t>ZZZ501</t>
-  </si>
-  <si>
-    <t>ABC0987AX297</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS292</t>
-  </si>
-  <si>
-    <t>ZZZ502</t>
-  </si>
-  <si>
-    <t>ABC0987AX298</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS293</t>
-  </si>
-  <si>
-    <t>ZZZ503</t>
-  </si>
-  <si>
-    <t>ABC0987AX299</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS294</t>
+    <t>SumaAseguradaAcce</t>
+  </si>
+  <si>
+    <t>Movilidad</t>
+  </si>
+  <si>
+    <t>Hasta $150.000</t>
+  </si>
+  <si>
+    <t>NombreAccesorio</t>
+  </si>
+  <si>
+    <t>ZZZ518</t>
+  </si>
+  <si>
+    <t>ABC0987AX314</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS309</t>
+  </si>
+  <si>
+    <t>ZZZ519</t>
+  </si>
+  <si>
+    <t>ABC0987AX315</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS310</t>
   </si>
 </sst>
 </file>
@@ -147,27 +150,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -488,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3219A7E-753F-4FEB-993B-C5A835647261}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +484,7 @@
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -535,8 +518,14 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -559,19 +548,25 @@
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,62 +589,41 @@
         <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>500</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1400000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -660,7 +634,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,7 +645,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -682,7 +656,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -693,7 +667,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -704,7 +678,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -715,7 +689,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -726,7 +700,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -737,7 +711,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -748,15 +722,18 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -795,9 +772,6 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -806,29 +780,12 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H16:J21 H6:J14">
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:J4">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  <conditionalFormatting sqref="H2:J18">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED7761-C02A-492B-A234-93115AF5A117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BE088-F0CF-4917-8952-01C97197E89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ED7761-C02A-492B-A234-93115AF5A117}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A6075D-5006-48F3-8ED1-545EC6A82898}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -84,22 +84,22 @@
     <t>NombreAccesorio</t>
   </si>
   <si>
-    <t>ZZZ518</t>
-  </si>
-  <si>
-    <t>ABC0987AX314</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS309</t>
-  </si>
-  <si>
-    <t>ZZZ519</t>
-  </si>
-  <si>
-    <t>ABC0987AX315</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS310</t>
+    <t>ZZZ520</t>
+  </si>
+  <si>
+    <t>ABC0987AX316</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS311</t>
+  </si>
+  <si>
+    <t>ZZZ521</t>
+  </si>
+  <si>
+    <t>ABC0987AX317</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS312</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="H2" sqref="H2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,9 +607,6 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -618,9 +615,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:J18">
+  <conditionalFormatting sqref="H6:J18 H2:J3">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
+++ b/Sura/Emisión Motor - Varios vehiculos - Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2BE088-F0CF-4917-8952-01C97197E89C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20EB49-8D51-45AF-895E-B00B0408016B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8F8708F9-7BC4-408F-93BD-D81A7ECC6DA1}"/>
   </bookViews>
@@ -84,22 +84,22 @@
     <t>NombreAccesorio</t>
   </si>
   <si>
-    <t>ZZZ518</t>
-  </si>
-  <si>
-    <t>ABC0987AX314</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS309</t>
-  </si>
-  <si>
-    <t>ZZZ519</t>
-  </si>
-  <si>
-    <t>ABC0987AX315</t>
-  </si>
-  <si>
-    <t>MMAA09XFGS310</t>
+    <t>ZZZ522</t>
+  </si>
+  <si>
+    <t>ABC0987AX318</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS313</t>
+  </si>
+  <si>
+    <t>ZZZ523</t>
+  </si>
+  <si>
+    <t>ABC0987AX319</t>
+  </si>
+  <si>
+    <t>MMAA09XFGS314</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,12 +559,6 @@
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -607,10 +601,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -618,9 +615,6 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -784,7 +778,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:J18">
+  <conditionalFormatting sqref="H6:J18 H2:J3">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
